--- a/需求分类结果/关于Bugzilla的数据汇总/Developer Tools- Computed Styles Inspector.xlsx
+++ b/需求分类结果/关于Bugzilla的数据汇总/Developer Tools- Computed Styles Inspector.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView/>
+    <workbookView windowWidth="22943" windowHeight="9924"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="R196a574233c44ec1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134">
   <si>
     <t>字段1</t>
   </si>
@@ -31,15 +34,99 @@
     <t>时间</t>
   </si>
   <si>
+    <t>1248055</t>
+  </si>
+  <si>
+    <t>Developer Tools: Com</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>Intermittent browser_computed_browser-styles.js | This test exceeded the timeout threshold. It should be rewritten or split up.</t>
+  </si>
+  <si>
+    <t>https://bugzilla.mozilla.org/show_bug.cgi?id=1248055</t>
+  </si>
+  <si>
+    <t>2016-03-08</t>
+  </si>
+  <si>
+    <t>1242856</t>
+  </si>
+  <si>
+    <t>[a11y] Add necessary semantics to the computed styles view.</t>
+  </si>
+  <si>
+    <t>https://bugzilla.mozilla.org/show_bug.cgi?id=1242856</t>
+  </si>
+  <si>
+    <t>2016-03-29</t>
+  </si>
+  <si>
+    <t>902315</t>
+  </si>
+  <si>
+    <t>CssLogic will incorrectly report a selector match if a rule matches the element and a parent</t>
+  </si>
+  <si>
+    <t>https://bugzilla.mozilla.org/show_bug.cgi?id=902315</t>
+  </si>
+  <si>
+    <t>2016-04-10</t>
+  </si>
+  <si>
+    <t>1152343</t>
+  </si>
+  <si>
+    <t>When checking the computed styles and clicking the arrow beside the property name for pseudo elements (before and after) , the selector doesn't show up</t>
+  </si>
+  <si>
+    <t>https://bugzilla.mozilla.org/show_bug.cgi?id=1152343</t>
+  </si>
+  <si>
+    <t>2016-04-12</t>
+  </si>
+  <si>
+    <t>1262425</t>
+  </si>
+  <si>
+    <t>Computed padding value doesn't appear in the computed-styles tab when the value comes from a css variable</t>
+  </si>
+  <si>
+    <t>https://bugzilla.mozilla.org/show_bug.cgi?id=1262425</t>
+  </si>
+  <si>
+    <t>2016-04-13</t>
+  </si>
+  <si>
+    <t>1267111</t>
+  </si>
+  <si>
+    <t>Intermittent browser_computed_search-filter_clear.js | Test timed out</t>
+  </si>
+  <si>
+    <t>https://bugzilla.mozilla.org/show_bug.cgi?id=1267111</t>
+  </si>
+  <si>
+    <t>2016-04-26</t>
+  </si>
+  <si>
+    <t>1201749</t>
+  </si>
+  <si>
+    <t>Drop-down lists in computed view shouldn't expand if text is being selected</t>
+  </si>
+  <si>
+    <t>https://bugzilla.mozilla.org/show_bug.cgi?id=1201749</t>
+  </si>
+  <si>
+    <t>2016-04-29</t>
+  </si>
+  <si>
     <t>1088616</t>
   </si>
   <si>
-    <t>Developer Tools: Com</t>
-  </si>
-  <si>
-    <t>NEW</t>
-  </si>
-  <si>
     <t>The list of supported properties in the computed-view should be resolved on the server-side</t>
   </si>
   <si>
@@ -49,28 +136,169 @@
     <t>2016-05-09</t>
   </si>
   <si>
-    <t>1152343</t>
-  </si>
-  <si>
-    <t>When checking the computed styles and clicking the arrow beside the property name for pseudo elements (before and after) , the selector doesn't show up</t>
-  </si>
-  <si>
-    <t>https://bugzilla.mozilla.org/show_bug.cgi?id=1152343</t>
-  </si>
-  <si>
-    <t>2016-04-12</t>
-  </si>
-  <si>
-    <t>1242856</t>
-  </si>
-  <si>
-    <t>[a11y] Add necessary semantics to the computed styles view.</t>
-  </si>
-  <si>
-    <t>https://bugzilla.mozilla.org/show_bug.cgi?id=1242856</t>
-  </si>
-  <si>
-    <t>2016-03-29</t>
+    <t>1207757</t>
+  </si>
+  <si>
+    <t>"Computed" tab of inspector sidebar always scroll into view the line where you started text selection</t>
+  </si>
+  <si>
+    <t>https://bugzilla.mozilla.org/show_bug.cgi?id=1207757</t>
+  </si>
+  <si>
+    <t>2016-05-19</t>
+  </si>
+  <si>
+    <t>1276522</t>
+  </si>
+  <si>
+    <t>Intermittent browser_computed_search-filter_context-menu.js | Test timed out -</t>
+  </si>
+  <si>
+    <t>https://bugzilla.mozilla.org/show_bug.cgi?id=1276522</t>
+  </si>
+  <si>
+    <t>2016-06-03</t>
+  </si>
+  <si>
+    <t>1260183</t>
+  </si>
+  <si>
+    <t>Intermittent browser_computed_search-filter_context-menu.js | Uncaught exception - [Exception... "Component returned failure code: 0x80004005 (NS_ERROR_FAILURE) [nsIClipboard.getData]" nsresult: "0x80004005 (NS_ERROR_FAILURE)" location: "JS frame :: chrom</t>
+  </si>
+  <si>
+    <t>https://bugzilla.mozilla.org/show_bug.cgi?id=1260183</t>
+  </si>
+  <si>
+    <t>2016-08-10</t>
+  </si>
+  <si>
+    <t>1326939</t>
+  </si>
+  <si>
+    <t>Control buttons in box model highlight don't reliably change values</t>
+  </si>
+  <si>
+    <t>https://bugzilla.mozilla.org/show_bug.cgi?id=1326939</t>
+  </si>
+  <si>
+    <t>2017-01-01</t>
+  </si>
+  <si>
+    <t>1327180</t>
+  </si>
+  <si>
+    <t>Box model doesn't apply changes if corresponding rules were disabled in ruleview</t>
+  </si>
+  <si>
+    <t>https://bugzilla.mozilla.org/show_bug.cgi?id=1327180</t>
+  </si>
+  <si>
+    <t>2017-01-05</t>
+  </si>
+  <si>
+    <t>1327688</t>
+  </si>
+  <si>
+    <t>Box model doesn't update when element dimensions change on ":hover"</t>
+  </si>
+  <si>
+    <t>https://bugzilla.mozilla.org/show_bug.cgi?id=1327688</t>
+  </si>
+  <si>
+    <t>1328946</t>
+  </si>
+  <si>
+    <t>[a11y] Keyboard navigation in Computed View: have to press Tab several extra times</t>
+  </si>
+  <si>
+    <t>https://bugzilla.mozilla.org/show_bug.cgi?id=1328946</t>
+  </si>
+  <si>
+    <t>2017-01-07</t>
+  </si>
+  <si>
+    <t>1327086</t>
+  </si>
+  <si>
+    <t>Quirks mode: box model draws part of blue line in irrelevant place</t>
+  </si>
+  <si>
+    <t>https://bugzilla.mozilla.org/show_bug.cgi?id=1327086</t>
+  </si>
+  <si>
+    <t>2017-01-11</t>
+  </si>
+  <si>
+    <t>1327247</t>
+  </si>
+  <si>
+    <t>Box model blinks (disappears and appears again) when I filter rules in computed view</t>
+  </si>
+  <si>
+    <t>https://bugzilla.mozilla.org/show_bug.cgi?id=1327247</t>
+  </si>
+  <si>
+    <t>2017-01-12</t>
+  </si>
+  <si>
+    <t>1327687</t>
+  </si>
+  <si>
+    <t>Box model doesn't immediately update values of margin if it changes from or to "auto"</t>
+  </si>
+  <si>
+    <t>https://bugzilla.mozilla.org/show_bug.cgi?id=1327687</t>
+  </si>
+  <si>
+    <t>2017-03-10</t>
+  </si>
+  <si>
+    <t>1369008</t>
+  </si>
+  <si>
+    <t>The box-model is not updated for white-space only text node</t>
+  </si>
+  <si>
+    <t>https://bugzilla.mozilla.org/show_bug.cgi?id=1369008</t>
+  </si>
+  <si>
+    <t>2017-06-09</t>
+  </si>
+  <si>
+    <t>1313847</t>
+  </si>
+  <si>
+    <t>Intermittent devtools/client/inspector/computed/test/browser_computed_search-filter.js | This test exceeded the timeout threshold. It should be rewritten or split up. If that's not possible, use requestLongerTimeout(N), but only as a last resort. -</t>
+  </si>
+  <si>
+    <t>https://bugzilla.mozilla.org/show_bug.cgi?id=1313847</t>
+  </si>
+  <si>
+    <t>2017-08-13</t>
+  </si>
+  <si>
+    <t>1400046</t>
+  </si>
+  <si>
+    <t>Computed side panel misses CSS variables</t>
+  </si>
+  <si>
+    <t>https://bugzilla.mozilla.org/show_bug.cgi?id=1400046</t>
+  </si>
+  <si>
+    <t>2017-09-15</t>
+  </si>
+  <si>
+    <t>1403340</t>
+  </si>
+  <si>
+    <t>Inspector: tweak Computed tab odd/even lines color on Dark theme</t>
+  </si>
+  <si>
+    <t>https://bugzilla.mozilla.org/show_bug.cgi?id=1403340</t>
+  </si>
+  <si>
+    <t>2017-10-06</t>
   </si>
   <si>
     <t>1291638</t>
@@ -85,61 +313,34 @@
     <t>2017-10-29</t>
   </si>
   <si>
-    <t>1326939</t>
-  </si>
-  <si>
-    <t>Control buttons in box model highlight don't reliably change values</t>
-  </si>
-  <si>
-    <t>https://bugzilla.mozilla.org/show_bug.cgi?id=1326939</t>
-  </si>
-  <si>
-    <t>2017-01-01</t>
-  </si>
-  <si>
-    <t>1327180</t>
-  </si>
-  <si>
-    <t>Box model doesn't apply changes if corresponding rules were disabled in ruleview</t>
-  </si>
-  <si>
-    <t>https://bugzilla.mozilla.org/show_bug.cgi?id=1327180</t>
-  </si>
-  <si>
-    <t>2017-01-05</t>
-  </si>
-  <si>
-    <t>1327247</t>
-  </si>
-  <si>
-    <t>Box model blinks (disappears and appears again) when I filter rules in computed view</t>
-  </si>
-  <si>
-    <t>https://bugzilla.mozilla.org/show_bug.cgi?id=1327247</t>
-  </si>
-  <si>
-    <t>2017-01-12</t>
-  </si>
-  <si>
-    <t>1327688</t>
-  </si>
-  <si>
-    <t>Box model doesn't update when element dimensions change on ":hover"</t>
-  </si>
-  <si>
-    <t>https://bugzilla.mozilla.org/show_bug.cgi?id=1327688</t>
-  </si>
-  <si>
-    <t>1369008</t>
-  </si>
-  <si>
-    <t>The box-model is not updated for white-space only text node</t>
-  </si>
-  <si>
-    <t>https://bugzilla.mozilla.org/show_bug.cgi?id=1369008</t>
-  </si>
-  <si>
-    <t>2017-06-09</t>
+    <t>1307846</t>
+  </si>
+  <si>
+    <t>Intermittent devtools/client/inspector/computed/test/browser_computed_style-editor-link.js | View source tab is open -</t>
+  </si>
+  <si>
+    <t>https://bugzilla.mozilla.org/show_bug.cgi?id=1307846</t>
+  </si>
+  <si>
+    <t>733751</t>
+  </si>
+  <si>
+    <t>show only non-default values in Computed view (for shorthand properties)</t>
+  </si>
+  <si>
+    <t>https://bugzilla.mozilla.org/show_bug.cgi?id=733751</t>
+  </si>
+  <si>
+    <t>2017-11-15</t>
+  </si>
+  <si>
+    <t>1321800</t>
+  </si>
+  <si>
+    <t>[Computed View] Allow to edit values and link back to rule view (not to style editor)</t>
+  </si>
+  <si>
+    <t>https://bugzilla.mozilla.org/show_bug.cgi?id=1321800</t>
   </si>
   <si>
     <t>1382583</t>
@@ -154,42 +355,6 @@
     <t>2017-11-16</t>
   </si>
   <si>
-    <t>1400046</t>
-  </si>
-  <si>
-    <t>Computed side panel misses CSS variables</t>
-  </si>
-  <si>
-    <t>https://bugzilla.mozilla.org/show_bug.cgi?id=1400046</t>
-  </si>
-  <si>
-    <t>2017-09-15</t>
-  </si>
-  <si>
-    <t>733751</t>
-  </si>
-  <si>
-    <t>show only non-default values in Computed view (for shorthand properties)</t>
-  </si>
-  <si>
-    <t>https://bugzilla.mozilla.org/show_bug.cgi?id=733751</t>
-  </si>
-  <si>
-    <t>2017-11-15</t>
-  </si>
-  <si>
-    <t>902315</t>
-  </si>
-  <si>
-    <t>CssLogic will incorrectly report a selector match if a rule matches the element and a parent</t>
-  </si>
-  <si>
-    <t>https://bugzilla.mozilla.org/show_bug.cgi?id=902315</t>
-  </si>
-  <si>
-    <t>2016-04-10</t>
-  </si>
-  <si>
     <t>977128</t>
   </si>
   <si>
@@ -199,156 +364,6 @@
     <t>https://bugzilla.mozilla.org/show_bug.cgi?id=977128</t>
   </si>
   <si>
-    <t>1201749</t>
-  </si>
-  <si>
-    <t>Drop-down lists in computed view shouldn't expand if text is being selected</t>
-  </si>
-  <si>
-    <t>https://bugzilla.mozilla.org/show_bug.cgi?id=1201749</t>
-  </si>
-  <si>
-    <t>2016-04-29</t>
-  </si>
-  <si>
-    <t>1207757</t>
-  </si>
-  <si>
-    <t>"Computed" tab of inspector sidebar always scroll into view the line where you started text selection</t>
-  </si>
-  <si>
-    <t>https://bugzilla.mozilla.org/show_bug.cgi?id=1207757</t>
-  </si>
-  <si>
-    <t>2016-05-19</t>
-  </si>
-  <si>
-    <t>1248055</t>
-  </si>
-  <si>
-    <t>Intermittent browser_computed_browser-styles.js | This test exceeded the timeout threshold. It should be rewritten or split up.</t>
-  </si>
-  <si>
-    <t>https://bugzilla.mozilla.org/show_bug.cgi?id=1248055</t>
-  </si>
-  <si>
-    <t>2016-03-08</t>
-  </si>
-  <si>
-    <t>1260183</t>
-  </si>
-  <si>
-    <t>Intermittent browser_computed_search-filter_context-menu.js | Uncaught exception - [Exception... "Component returned failure code: 0x80004005 (NS_ERROR_FAILURE) [nsIClipboard.getData]" nsresult: "0x80004005 (NS_ERROR_FAILURE)" location: "JS frame :: chrom</t>
-  </si>
-  <si>
-    <t>https://bugzilla.mozilla.org/show_bug.cgi?id=1260183</t>
-  </si>
-  <si>
-    <t>2016-08-10</t>
-  </si>
-  <si>
-    <t>1262425</t>
-  </si>
-  <si>
-    <t>Computed padding value doesn't appear in the computed-styles tab when the value comes from a css variable</t>
-  </si>
-  <si>
-    <t>https://bugzilla.mozilla.org/show_bug.cgi?id=1262425</t>
-  </si>
-  <si>
-    <t>2016-04-13</t>
-  </si>
-  <si>
-    <t>1267111</t>
-  </si>
-  <si>
-    <t>Intermittent browser_computed_search-filter_clear.js | Test timed out</t>
-  </si>
-  <si>
-    <t>https://bugzilla.mozilla.org/show_bug.cgi?id=1267111</t>
-  </si>
-  <si>
-    <t>2016-04-26</t>
-  </si>
-  <si>
-    <t>1276522</t>
-  </si>
-  <si>
-    <t>Intermittent browser_computed_search-filter_context-menu.js | Test timed out -</t>
-  </si>
-  <si>
-    <t>https://bugzilla.mozilla.org/show_bug.cgi?id=1276522</t>
-  </si>
-  <si>
-    <t>2016-06-03</t>
-  </si>
-  <si>
-    <t>1307846</t>
-  </si>
-  <si>
-    <t>Intermittent devtools/client/inspector/computed/test/browser_computed_style-editor-link.js | View source tab is open -</t>
-  </si>
-  <si>
-    <t>https://bugzilla.mozilla.org/show_bug.cgi?id=1307846</t>
-  </si>
-  <si>
-    <t>1313847</t>
-  </si>
-  <si>
-    <t>Intermittent devtools/client/inspector/computed/test/browser_computed_search-filter.js | This test exceeded the timeout threshold. It should be rewritten or split up. If that's not possible, use requestLongerTimeout(N), but only as a last resort. -</t>
-  </si>
-  <si>
-    <t>https://bugzilla.mozilla.org/show_bug.cgi?id=1313847</t>
-  </si>
-  <si>
-    <t>2017-08-13</t>
-  </si>
-  <si>
-    <t>1321800</t>
-  </si>
-  <si>
-    <t>[Computed View] Allow to edit values and link back to rule view (not to style editor)</t>
-  </si>
-  <si>
-    <t>https://bugzilla.mozilla.org/show_bug.cgi?id=1321800</t>
-  </si>
-  <si>
-    <t>1327086</t>
-  </si>
-  <si>
-    <t>Quirks mode: box model draws part of blue line in irrelevant place</t>
-  </si>
-  <si>
-    <t>https://bugzilla.mozilla.org/show_bug.cgi?id=1327086</t>
-  </si>
-  <si>
-    <t>2017-01-11</t>
-  </si>
-  <si>
-    <t>1327687</t>
-  </si>
-  <si>
-    <t>Box model doesn't immediately update values of margin if it changes from or to "auto"</t>
-  </si>
-  <si>
-    <t>https://bugzilla.mozilla.org/show_bug.cgi?id=1327687</t>
-  </si>
-  <si>
-    <t>2017-03-10</t>
-  </si>
-  <si>
-    <t>1328946</t>
-  </si>
-  <si>
-    <t>[a11y] Keyboard navigation in Computed View: have to press Tab several extra times</t>
-  </si>
-  <si>
-    <t>https://bugzilla.mozilla.org/show_bug.cgi?id=1328946</t>
-  </si>
-  <si>
-    <t>2017-01-07</t>
-  </si>
-  <si>
     <t>1418351</t>
   </si>
   <si>
@@ -361,18 +376,6 @@
     <t>2017-11-20</t>
   </si>
   <si>
-    <t>1403340</t>
-  </si>
-  <si>
-    <t>Inspector: tweak Computed tab odd/even lines color on Dark theme</t>
-  </si>
-  <si>
-    <t>https://bugzilla.mozilla.org/show_bug.cgi?id=1403340</t>
-  </si>
-  <si>
-    <t>2017-10-06</t>
-  </si>
-  <si>
     <t>1420980</t>
   </si>
   <si>
@@ -398,24 +401,212 @@
   </si>
   <si>
     <t>2017-12-17</t>
+  </si>
+  <si>
+    <t>点击属性旁的内容时，选择器不会出现</t>
+  </si>
+  <si>
+    <t>在Computed view中只显示非默认值</t>
+  </si>
+  <si>
+    <t>快速模式有问题</t>
+  </si>
+  <si>
+    <t>颜色改变功能有问题</t>
+  </si>
+  <si>
+    <r>
+      <t>drop-down</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>列表的展开有问题</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -424,11 +615,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD3D3D3" tint="0"/>
+        <fgColor rgb="FFD3D3D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -438,44 +816,604 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF808080" tint="0"/>
+        <color rgb="FF808080"/>
       </left>
       <right style="thin">
-        <color rgb="FF808080" tint="0"/>
+        <color rgb="FF808080"/>
       </right>
       <top style="thin">
-        <color rgb="FF808080" tint="0"/>
+        <color rgb="FF808080"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF808080" tint="0"/>
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0"/>
-    <xf numFmtId="0" fontId="1" xfId="0"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" defaultColWidth="20"/>
+  <sheetFormatPr defaultColWidth="20" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <cols>
+    <col min="3" max="3" width="8.33333333333333" customWidth="1"/>
+    <col min="4" max="4" width="140.555555555556" customWidth="1"/>
+    <col min="5" max="5" width="136.333333333333" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,7 +1433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -515,7 +1453,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -535,7 +1473,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -555,7 +1493,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -575,7 +1513,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -595,7 +1533,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
@@ -615,7 +1553,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
@@ -635,7 +1573,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
@@ -652,12 +1590,12 @@
         <v>38</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>7</v>
@@ -666,18 +1604,18 @@
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>7</v>
@@ -686,18 +1624,18 @@
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>7</v>
@@ -706,18 +1644,18 @@
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>7</v>
@@ -726,18 +1664,18 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
@@ -746,38 +1684,38 @@
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16">
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>7</v>
@@ -786,18 +1724,18 @@
         <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>7</v>
@@ -806,18 +1744,18 @@
         <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>7</v>
@@ -826,18 +1764,18 @@
         <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
@@ -846,18 +1784,18 @@
         <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>7</v>
@@ -866,18 +1804,18 @@
         <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>7</v>
@@ -886,18 +1824,18 @@
         <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>7</v>
@@ -906,18 +1844,18 @@
         <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>7</v>
@@ -926,18 +1864,18 @@
         <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>7</v>
@@ -946,18 +1884,18 @@
         <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>7</v>
@@ -966,18 +1904,18 @@
         <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26">
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>7</v>
@@ -986,18 +1924,18 @@
         <v>8</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>7</v>
@@ -1006,18 +1944,18 @@
         <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="28">
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>7</v>
@@ -1026,36 +1964,36 @@
         <v>8</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="30">
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
         <v>116</v>
       </c>
@@ -1075,7 +2013,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
         <v>120</v>
       </c>
@@ -1095,7 +2033,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
         <v>124</v>
       </c>
@@ -1115,7 +2053,36 @@
         <v>128</v>
       </c>
     </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A2:F32">
+    <sortCondition ref="F2"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
 </file>